--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>1300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -769,13 +782,19 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>32100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,17 +919,17 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -898,8 +937,14 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,51 +988,59 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F17" s="3">
         <v>10100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2600</v>
+      <c r="D18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,22 +1073,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1037,22 +1104,28 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2600</v>
+      <c r="D21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1066,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,42 +1174,54 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1141,11 +1232,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,22 +1489,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1385,37 +1524,49 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>168100</v>
+      </c>
+      <c r="F41" s="3">
         <v>86300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>53100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,22 +1769,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F46" s="3">
         <v>89100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>54700</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1944,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,22 +2084,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F54" s="3">
         <v>92200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>56200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2223,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2359,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,23 +2394,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,23 +2654,29 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>103200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>63400</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>166000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-17800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-11000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,13 +3028,15 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2650,11 +3047,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>91800</v>
+      </c>
+      <c r="F100" s="3">
         <v>39900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>59400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>81800</v>
+      </c>
+      <c r="F102" s="3">
         <v>33200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>55600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,17 +719,20 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33400</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,8 +748,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -753,17 +757,20 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,17 +795,20 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E10" s="3">
         <v>32100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,32 +851,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>16300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3200</v>
       </c>
       <c r="H12" s="3">
         <v>3200</v>
       </c>
       <c r="I12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,31 +925,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -943,8 +963,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,32 +1016,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E17" s="3">
         <v>22700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,17 +1052,20 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>10700</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,16 +1108,17 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1110,17 +1144,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E21" s="3">
         <v>10800</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,32 +1220,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,17 +1258,20 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1238,8 +1284,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,32 +1334,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>10400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,32 +1372,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E27" s="3">
         <v>10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,16 +1562,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1530,32 +1600,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E33" s="3">
         <v>10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,32 +1676,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E35" s="3">
         <v>10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E41" s="3">
         <v>156200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,25 +1865,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E43" s="3">
         <v>32400</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1941,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E46" s="3">
         <v>191500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>170700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>89100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,25 +2055,28 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>1400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E54" s="3">
         <v>194000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>172000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,26 +2429,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2672,14 +2840,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>103200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>63400</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E76" s="3">
         <v>183200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,32 +3172,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E81" s="3">
         <v>10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,7 +3238,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3053,8 +3252,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,32 +3454,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,32 +3510,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,32 +3622,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3828,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3594,23 +3840,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>91800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>39900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>59400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,32 +3904,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>81800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,20 +723,23 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22000</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F8" s="3">
         <v>33400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,8 +755,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -760,20 +764,23 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,20 +805,23 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>21300</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F10" s="3">
         <v>32100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7200</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F12" s="3">
         <v>16300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3200</v>
       </c>
       <c r="I12" s="3">
         <v>3200</v>
       </c>
       <c r="J12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,23 +959,23 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -966,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14700</v>
+        <v>16900</v>
       </c>
       <c r="E17" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F17" s="3">
         <v>22700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,20 +1082,23 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7300</v>
+        <v>-15700</v>
       </c>
       <c r="E18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F18" s="3">
         <v>10700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,19 +1142,20 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1147,20 +1181,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6500</v>
+        <v>-16000</v>
       </c>
       <c r="E21" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F21" s="3">
         <v>10800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6400</v>
+        <v>-16000</v>
       </c>
       <c r="E23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F23" s="3">
         <v>10700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,19 +1304,22 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1287,8 +1333,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6300</v>
+        <v>-15700</v>
       </c>
       <c r="E26" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F26" s="3">
         <v>10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6300</v>
+        <v>-15700</v>
       </c>
       <c r="E27" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F27" s="3">
         <v>10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,19 +1632,22 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6300</v>
+        <v>-15700</v>
       </c>
       <c r="E33" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F33" s="3">
         <v>10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6300</v>
+        <v>-15700</v>
       </c>
       <c r="E35" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F35" s="3">
         <v>10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E41" s="3">
         <v>176700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>156200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>86300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,28 +1958,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>20200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32400</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>191500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>170700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>89100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,28 +2163,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>1400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>190400</v>
+      </c>
+      <c r="E54" s="3">
         <v>203500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>194000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>172000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,14 +3011,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>103200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>63400</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E76" s="3">
         <v>192500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>183200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-17800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6300</v>
+        <v>-15700</v>
       </c>
       <c r="E81" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F81" s="3">
         <v>10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3238,11 +3437,11 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3255,8 +3454,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20600</v>
+        <v>7100</v>
       </c>
       <c r="E89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3731,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4074,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>91800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>39900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>59400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20500</v>
+        <v>7100</v>
       </c>
       <c r="E102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>81800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,23 +726,26 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,8 +761,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -767,23 +770,26 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,23 +814,26 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>53400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +878,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3200</v>
       </c>
       <c r="J12" s="3">
         <v>3200</v>
       </c>
       <c r="K12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,23 +981,23 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="3">
         <v>16900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,23 +1111,26 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,13 +1185,13 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1184,23 +1217,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,38 +1305,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,22 +1349,25 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1336,8 +1381,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,13 +1713,13 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1676,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E41" s="3">
         <v>183800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>176700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>156200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>86300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,31 +2006,34 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1961,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1970,22 +2062,22 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>20200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32400</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E46" s="3">
         <v>187100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>191500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>170700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>89100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,31 +2270,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
       </c>
       <c r="H48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>1400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2446,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2534,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E54" s="3">
         <v>190400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>194000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>172000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,32 +2702,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2746,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,32 +2834,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3010,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,14 +3181,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>103200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>63400</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3248,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3424,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E76" s="3">
         <v>179100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>192500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>183200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>166000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-17800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,23 +3625,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3457,8 +3655,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E89" s="3">
         <v>7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,38 +3951,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>91800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>39900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>59400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>81800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>33200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>55400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,38 +772,44 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,29 +831,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>53400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>32100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>23500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>16300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,8 +1024,8 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -993,17 +1033,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1011,8 +1051,14 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,73 +1122,81 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F17" s="3">
         <v>14800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>37500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>22700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-15700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1218,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,28 +1242,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1220,29 +1288,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>17300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>10800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1338,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,73 +1388,85 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>17100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1384,11 +1476,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1488,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,28 +1838,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1748,52 +1888,64 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,38 +2137,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>245400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F41" s="3">
         <v>171300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>183800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>176700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>156200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>168100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>86300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>53100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,20 +2183,26 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>300</v>
+      </c>
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2035,11 +2215,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2053,37 +2233,43 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>20200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>32400</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2283,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,13 +2333,19 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="E45" s="3">
         <v>3100</v>
@@ -2156,23 +2354,23 @@
         <v>4000</v>
       </c>
       <c r="G45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,38 +2383,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>250300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>178800</v>
+      </c>
+      <c r="F46" s="3">
         <v>176000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>187100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>191500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>170700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>89100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>54700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,31 +2433,37 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2273,8 +2483,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2282,29 +2498,29 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2533,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,37 +2683,43 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,38 +2783,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>181500</v>
+      </c>
+      <c r="F54" s="3">
         <v>178900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>190400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>203500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>194000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>172000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>92200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>56200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,38 +2877,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2923,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,38 +2973,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,38 +3023,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,16 +3073,22 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2837,38 +3123,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,38 +3323,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,17 +3520,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>103200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>63400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,38 +3593,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-32800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,38 +3793,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>221500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>149200</v>
+      </c>
+      <c r="F76" s="3">
         <v>166700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>179100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>192500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>183200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>166000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-17800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-11000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,28 +4022,30 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3658,11 +4056,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +4068,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-11800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>91800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>39900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>59400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>81800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>33200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>55600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,32 +738,35 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>15300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,8 +782,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -787,32 +791,35 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,32 +844,35 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>14800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +920,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3200</v>
       </c>
       <c r="M12" s="3">
         <v>3200</v>
       </c>
       <c r="N12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,23 +1050,23 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E17" s="3">
         <v>20500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,32 +1201,35 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,31 +1277,32 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1294,32 +1328,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,31 +1381,34 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1487,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1482,8 +1528,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,31 +1911,34 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E41" s="3">
         <v>245400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>171300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>183800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>156200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,23 +2276,26 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>57100</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2311,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2239,40 +2329,43 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>20200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32400</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E46" s="3">
         <v>250300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>178800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>176000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>187100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>191500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>170700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>89100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,16 +2541,19 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2465,8 +2570,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2489,13 +2594,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
@@ -2504,25 +2612,25 @@
         <v>1800</v>
       </c>
       <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>1200</v>
       </c>
       <c r="K48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>1400</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2698,32 +2818,32 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E54" s="3">
         <v>252800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>181500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>178900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>203500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>194000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>172000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>8600</v>
       </c>
       <c r="F59" s="3">
         <v>8600</v>
       </c>
       <c r="G59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,20 +3219,23 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E61" s="3">
         <v>19300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E66" s="3">
         <v>31300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,14 +3694,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>103200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>63400</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>202600</v>
+      </c>
+      <c r="E76" s="3">
         <v>221500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>149200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>179100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>192500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>183200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>166000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-17800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4033,23 +4232,23 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4261,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4403,38 +4624,38 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>74700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>91800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>59400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E102" s="3">
         <v>70400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>81800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,121 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>55400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,17 +792,23 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,29 +816,29 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,8 +860,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,29 +875,29 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>14800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>53400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>32100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +919,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +946,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="3">
         <v>10900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>23500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1060,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,8 +1092,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1062,17 +1101,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1119,14 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1178,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,91 +1202,99 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F17" s="3">
         <v>22900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>20100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>37500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>22700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-25000</v>
       </c>
       <c r="E18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-19600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-14500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>17900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1316,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,37 +1343,39 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1331,38 +1398,44 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-23300</v>
       </c>
       <c r="E21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-20200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-14800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>10800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,20 +1457,26 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,11 +1489,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1437,61 +1516,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>17100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1505,23 +1596,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1531,11 +1622,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1634,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1693,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-20200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-15700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>16700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-20200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-15700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1870,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1929,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1988,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,37 +2047,43 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1967,61 +2106,73 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-20200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-15700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2224,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-20200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-15700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2374,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,47 +2397,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F41" s="3">
         <v>169500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>245400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>175000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>171300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>183800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>176700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>156200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>168100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>86300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>53100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,29 +2452,35 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>145400</v>
+      </c>
+      <c r="F42" s="3">
         <v>57100</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,11 +2493,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2332,46 +2511,52 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>20200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>32400</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2385,8 +2570,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,22 +2629,28 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4000</v>
       </c>
       <c r="H45" s="3">
         <v>3100</v>
@@ -2462,23 +2659,23 @@
         <v>4000</v>
       </c>
       <c r="J45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,47 +2688,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>225400</v>
+      </c>
+      <c r="F46" s="3">
         <v>234100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>250300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>178800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>176000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>187100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>191500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>170700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>89100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>54700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,23 +2747,29 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>400</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,11 +2782,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2597,47 +2806,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2865,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2924,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2983,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,46 +3042,52 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1800</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2862,8 +3101,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,47 +3160,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>211200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>227900</v>
+      </c>
+      <c r="F54" s="3">
         <v>236500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>252800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>181500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>178900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>190400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>203500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>194000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>172000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>92200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>56200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3219,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3246,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,47 +3269,49 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3324,14 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,47 +3383,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,47 +3442,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F60" s="3">
         <v>14300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,26 +3501,32 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E61" s="3">
         <v>19400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G61" s="3">
         <v>19300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>19200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3275,47 +3560,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3619,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3678,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3737,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,47 +3796,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F66" s="3">
         <v>33800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>31300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>32300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3855,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3882,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3937,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3996,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,17 +4032,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>103200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>63400</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +4055,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,47 +4114,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-132200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-95200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-72700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-66900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-46700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4173,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4232,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4291,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,47 +4350,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>192900</v>
+      </c>
+      <c r="F76" s="3">
         <v>202600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>221500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>149200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>166700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>179100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>192500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>183200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>166000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-17800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-11000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4409,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4468,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-20200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-15700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4618,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,25 +4632,25 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4264,11 +4661,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4673,14 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4732,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4791,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4850,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4909,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4968,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-15300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +5054,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +5168,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5227,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-57100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5313,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5368,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5427,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5486,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5545,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>74700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>91800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>39900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>59400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5663,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-75900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>70400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>81800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>33200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>55600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,41 +749,44 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10000</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>15300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +802,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -807,41 +811,44 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,41 +873,44 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>14800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +961,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="3">
         <v>12400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3200</v>
       </c>
       <c r="P12" s="3">
         <v>3200</v>
       </c>
       <c r="Q12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,31 +1083,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1098,23 +1118,23 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E17" s="3">
         <v>27500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,41 +1290,44 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,40 +1378,41 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>1500</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>2200</v>
       </c>
       <c r="F20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1404,41 +1438,44 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-23300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,23 +1500,26 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1495,8 +1535,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1624,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1602,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1628,8 +1674,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1810,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,40 +2120,43 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-1500</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>-2200</v>
       </c>
       <c r="F32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -2112,56 +2182,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2306,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E41" s="3">
         <v>66000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>169500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>245400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>175000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>171300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>183800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>156200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,32 +2545,35 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E42" s="3">
         <v>135200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>145400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>57100</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2499,8 +2589,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2517,49 +2607,52 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>20200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32400</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2793,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E46" s="3">
         <v>208600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>234100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>250300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>178800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>176000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>187100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>191500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>170700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>89100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>54700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2762,16 +2867,16 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
+        <v>300</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2788,8 +2893,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2812,22 +2917,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>1800</v>
@@ -2836,25 +2944,25 @@
         <v>1800</v>
       </c>
       <c r="J48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1200</v>
       </c>
       <c r="M48" s="3">
         <v>1200</v>
       </c>
       <c r="N48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>1400</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2871,8 +2979,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,16 +3165,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -3066,32 +3186,32 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E54" s="3">
         <v>211200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>227900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>252800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>181500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>178900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>190400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>203500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>194000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>8600</v>
       </c>
       <c r="I59" s="3">
         <v>8600</v>
       </c>
       <c r="J59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3585,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,29 +3647,32 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E61" s="3">
         <v>24500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>19400</v>
       </c>
       <c r="F61" s="3">
         <v>19400</v>
       </c>
       <c r="G61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H61" s="3">
         <v>19300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3566,50 +3709,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E66" s="3">
         <v>37800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4038,14 +4206,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>103200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>63400</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-163600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-132200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-108800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-95200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-66900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E76" s="3">
         <v>173400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>192900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>202600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>221500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>149200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>166700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>179100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>192500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>183200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>166000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-17800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4730,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,13 +4818,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4638,23 +4837,23 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4667,8 +4866,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5188,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,16 +5276,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5074,38 +5295,38 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,56 +5460,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E94" s="3">
         <v>11300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-87200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,56 +5794,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>74700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>91800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>59400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,56 +5918,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-97800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-75900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TARS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>TARS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,44 +753,47 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>1900</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10000</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>15300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,8 +809,8 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -814,44 +818,47 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>400</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,44 +883,47 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>1500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>9600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>14800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,59 +975,60 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E12" s="3">
         <v>12500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3200</v>
       </c>
       <c r="Q12" s="3">
         <v>3200</v>
       </c>
       <c r="R12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S12" s="3">
         <v>2100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1112,8 +1132,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1121,23 +1141,23 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,59 +1257,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E17" s="3">
         <v>32800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,44 +1320,47 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-40900</v>
       </c>
       <c r="E18" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,13 +1412,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
         <v>2200</v>
@@ -1394,28 +1428,28 @@
         <v>2200</v>
       </c>
       <c r="G20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
       </c>
       <c r="L20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1441,44 +1475,47 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-38000</v>
       </c>
       <c r="E21" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,26 +1540,29 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
       </c>
       <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,8 +1578,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1565,59 +1605,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,8 +1670,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1651,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1677,8 +1723,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,59 +1800,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,59 +1865,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,13 +2190,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
         <v>-2200</v>
@@ -2138,28 +2208,28 @@
         <v>-2200</v>
       </c>
       <c r="G32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
       </c>
       <c r="L32" s="3">
+        <v>300</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -2185,59 +2255,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,59 +2385,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,64 +2450,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2520,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,53 +2572,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E41" s="3">
         <v>106800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>169500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>245400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>175000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>171300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>156200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>168100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>86300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>53100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,35 +2635,38 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E42" s="3">
         <v>71500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>135200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>145400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>57100</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,8 +2682,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2610,52 +2700,55 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>20200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32400</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2672,31 +2765,34 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2734,53 +2830,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,53 +2895,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E46" s="3">
         <v>183500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>208600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>225400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>250300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>178800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>176000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>187100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>191500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>170700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>89100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>54700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,28 +2960,31 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
+        <v>300</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3001,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2920,25 +3025,28 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1800</v>
@@ -2947,25 +3055,25 @@
         <v>1800</v>
       </c>
       <c r="K48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1200</v>
       </c>
       <c r="N48" s="3">
         <v>1200</v>
       </c>
       <c r="O48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>1400</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2982,31 +3090,34 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,19 +3285,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -3189,32 +3309,32 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,53 +3415,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E54" s="3">
         <v>188900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>211200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>227900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>236500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>252800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>181500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>178900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>190400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>203500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>194000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>172000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,53 +3532,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3526,53 +3660,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>8600</v>
       </c>
       <c r="J59" s="3">
         <v>8600</v>
       </c>
       <c r="K59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,53 +3725,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E60" s="3">
         <v>14800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,32 +3790,35 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E61" s="3">
         <v>24600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>19400</v>
       </c>
       <c r="G61" s="3">
         <v>19400</v>
       </c>
       <c r="H61" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I61" s="3">
         <v>19300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3712,53 +3855,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
+        <v>600</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,53 +4115,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E66" s="3">
         <v>41200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4209,14 +4377,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>103200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>63400</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,53 +4465,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-202800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-163600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-132200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-95200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-66900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,53 +4725,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E76" s="3">
         <v>147700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>173400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>192900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>202600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>221500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>149200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>166700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>179100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>192500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>183200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>166000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-17800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,64 +4855,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,59 +4925,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4828,7 +5027,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4840,23 +5039,23 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4869,8 +5068,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,59 +5405,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,19 +5497,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5298,38 +5519,38 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,59 +5690,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E94" s="3">
         <v>64100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-87200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,59 +6040,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>74700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>91800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>59400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,59 +6170,62 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E102" s="3">
         <v>40800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-97800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-75900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>33200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
